--- a/logic/data/500.xlsx
+++ b/logic/data/500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\OneDrive\Documentos\IA\PROYECTO\Coin-Recognition\logic\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA6594-F252-4B31-9D3E-A2ED1F1AF432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D136A-491A-42BC-A33F-8386FDFFAB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,12 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,8 +286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -309,7 +308,7 @@
         <v>6785.15</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -320,7 +319,7 @@
         <v>7000.4</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -328,7 +327,7 @@
         <v>6728.44</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -336,7 +335,7 @@
         <v>7017.75</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -344,7 +343,7 @@
         <v>6624.29</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -352,7 +351,7 @@
         <v>7030.86</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -360,7 +359,7 @@
         <v>6918.31</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -368,7 +367,7 @@
         <v>6286.05</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -376,7 +375,7 @@
         <v>6886.69</v>
       </c>
       <c r="B10" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -384,7 +383,7 @@
         <v>7093.09</v>
       </c>
       <c r="B11" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -392,7 +391,7 @@
         <v>7415.84</v>
       </c>
       <c r="B12" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -400,7 +399,7 @@
         <v>7117.59</v>
       </c>
       <c r="B13" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -408,7 +407,7 @@
         <v>6887.42</v>
       </c>
       <c r="B14" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -416,127 +415,127 @@
         <v>6590.54</v>
       </c>
       <c r="B15" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>7555.35</v>
       </c>
-      <c r="B16" s="4">
-        <v>500</v>
+      <c r="B16" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>7131.04</v>
       </c>
-      <c r="B17" s="4">
-        <v>500</v>
+      <c r="B17" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>2490.9899999999998</v>
       </c>
-      <c r="B18" s="4">
-        <v>500</v>
+      <c r="B18" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>7066.43</v>
       </c>
-      <c r="B19" s="4">
-        <v>500</v>
+      <c r="B19" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>6895.16</v>
       </c>
-      <c r="B20" s="4">
-        <v>500</v>
+      <c r="B20" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>7077.13</v>
       </c>
-      <c r="B21" s="4">
-        <v>500</v>
+      <c r="B21" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>6889.29</v>
       </c>
-      <c r="B22" s="4">
-        <v>500</v>
+      <c r="B22" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>7372.69</v>
       </c>
-      <c r="B23" s="4">
-        <v>500</v>
+      <c r="B23" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>6814.97</v>
       </c>
-      <c r="B24" s="4">
-        <v>500</v>
+      <c r="B24" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>7265.66</v>
       </c>
-      <c r="B25" s="4">
-        <v>500</v>
+      <c r="B25" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>7440.11</v>
       </c>
-      <c r="B26" s="4">
-        <v>500</v>
+      <c r="B26" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>7254.88</v>
       </c>
-      <c r="B27" s="4">
-        <v>500</v>
+      <c r="B27" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>7051.59</v>
       </c>
-      <c r="B28" s="4">
-        <v>500</v>
+      <c r="B28" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>7739.72</v>
       </c>
-      <c r="B29" s="4">
-        <v>500</v>
+      <c r="B29" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>7146.29</v>
       </c>
-      <c r="B30" s="4">
-        <v>500</v>
+      <c r="B30" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
